--- a/documentation/Example files/training_diary.xlsx
+++ b/documentation/Example files/training_diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25040" windowHeight="18740" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>instruction</t>
   </si>
@@ -151,10 +151,19 @@
     <t>range 0,100,1</t>
   </si>
   <si>
-    <t>&lt;i class="fa fa-smile"&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
-    <t>&lt;i class="fa fa-frown"&gt;&lt;/i&gt;</t>
+    <t>value</t>
+  </si>
+  <si>
+    <t>head(squats,1)</t>
+  </si>
+  <si>
+    <t>sticky</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa fa-frown-o fa-3x"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa fa-smile-o fa-3x"&gt;&lt;/i&gt;</t>
   </si>
 </sst>
 </file>
@@ -218,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -237,6 +246,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,11 +580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -586,7 +598,7 @@
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="18">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="18">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -614,8 +626,11 @@
       <c r="I1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,7 +641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30">
+    <row r="3" spans="1:10" ht="30">
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
@@ -636,8 +651,11 @@
       <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="30">
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
@@ -647,8 +665,11 @@
       <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30">
+      <c r="J4" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
@@ -658,8 +679,11 @@
       <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30">
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
@@ -669,8 +693,11 @@
       <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="30">
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30">
       <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
@@ -680,8 +707,11 @@
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30">
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
@@ -691,8 +721,11 @@
       <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="60">
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45">
       <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
@@ -703,13 +736,13 @@
         <v>28</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30">
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>

--- a/documentation/Example files/training_diary.xlsx
+++ b/documentation/Example files/training_diary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>instruction</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>&lt;i class="fa fa-smile-o fa-3x"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>number 0,1000,0.01</t>
+  </si>
+  <si>
+    <t>number 0,1000,any</t>
   </si>
 </sst>
 </file>
@@ -584,7 +590,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -699,7 +705,7 @@
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -713,7 +719,7 @@
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>38</v>

--- a/documentation/Example files/training_diary.xlsx
+++ b/documentation/Example files/training_diary.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
-  <si>
-    <t>instruction</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>cool</t>
   </si>
@@ -164,6 +161,24 @@
   </si>
   <si>
     <t>&lt;i class="fa fa-smile-o fa-3x"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>bla</t>
+  </si>
+  <si>
+    <t>Go on!</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Good work, chap!</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
 </sst>
 </file>
@@ -584,7 +599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -600,157 +615,179 @@
   <sheetData>
     <row r="1" spans="1:10" s="6" customFormat="1" ht="18">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30">
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -788,25 +825,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -814,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -822,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -830,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -838,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -846,26 +883,26 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Example files/training_diary.xlsx
+++ b/documentation/Example files/training_diary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>cool</t>
   </si>
@@ -76,9 +76,6 @@
     <t>coolness</t>
   </si>
   <si>
-    <t>skipif</t>
-  </si>
-  <si>
     <t>jura</t>
   </si>
   <si>
@@ -179,13 +176,43 @@
   </si>
   <si>
     <t>xx</t>
+  </si>
+  <si>
+    <t>mc</t>
+  </si>
+  <si>
+    <t>jogging_at_all</t>
+  </si>
+  <si>
+    <t>Did you go jogging today?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>showif</t>
+  </si>
+  <si>
+    <t>tail(jogging_at_all, 1) == 1</t>
+  </si>
+  <si>
+    <t>mc_button</t>
+  </si>
+  <si>
+    <t>feelgood</t>
+  </si>
+  <si>
+    <t>Did it feel good?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,6 +248,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,8 +282,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -265,7 +314,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,11 +650,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -639,164 +694,207 @@
         <v>11</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
       <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="45">
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    <row r="9" spans="1:10" ht="45">
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30">
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>44</v>
+      <c r="I9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45">
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="30">
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30">
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="C12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="21" spans="1:2" ht="16" customHeight="1"/>
-    <row r="26" spans="1:2" ht="33">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="22" spans="1:2" ht="16" customHeight="1"/>
+    <row r="27" spans="1:2" ht="33">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -888,10 +986,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>6</v>
@@ -899,7 +997,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>7</v>

--- a/documentation/Example files/training_diary.xlsx
+++ b/documentation/Example files/training_diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>cool</t>
   </si>
@@ -148,9 +148,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>head(squats,1)</t>
-  </si>
-  <si>
     <t>sticky</t>
   </si>
   <si>
@@ -160,24 +157,9 @@
     <t>&lt;i class="fa fa-smile-o fa-3x"&gt;&lt;/i&gt;</t>
   </si>
   <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>bla</t>
-  </si>
-  <si>
-    <t>Go on!</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
-    <t>Good work, chap!</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
     <t>mc</t>
   </si>
   <si>
@@ -206,6 +188,21 @@
   </si>
   <si>
     <t>Did it feel good?</t>
+  </si>
+  <si>
+    <t>Jumping jacks</t>
+  </si>
+  <si>
+    <t>jumping_jacks</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>Photograph your abs!</t>
+  </si>
+  <si>
+    <t>abs_image</t>
   </si>
 </sst>
 </file>
@@ -282,8 +279,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -314,13 +315,17 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -650,11 +655,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -694,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>41</v>
@@ -702,7 +707,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -722,7 +727,7 @@
         <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="30">
@@ -736,7 +741,7 @@
         <v>29</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
@@ -750,7 +755,7 @@
         <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30">
@@ -767,38 +772,35 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="30">
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="45">
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45">
@@ -806,95 +808,101 @@
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="45">
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45">
       <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="45">
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="30">
-      <c r="C12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="22" spans="1:2" ht="16" customHeight="1"/>
-    <row r="27" spans="1:2" ht="33">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3"/>
+    <row r="15" spans="1:10">
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="21" spans="1:2" ht="16" customHeight="1"/>
+    <row r="26" spans="1:2" ht="33">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
